--- a/input/Domains/Game/TestTable.xlsx
+++ b/input/Domains/Game/TestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Devwinsoft\devian\input\Common\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maoshy/Documents/Projects/devian/input/Domains/Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C0081-AF7E-4055-9886-47DF1E4039B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53190B1-A76A-CD43-8F71-33E36756784D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="900" windowWidth="25635" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="900" windowWidth="25640" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,9 +462,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -504,12 +507,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -529,7 +532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -546,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -575,9 +578,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -588,7 +591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
